--- a/out/CE/FigA_14.xlsx
+++ b/out/CE/FigA_14.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060595E2-8A8B-4974-866D-CD72B6AA96B3}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.87512000000000001</v>
+        <v>0.87383999999999995</v>
       </c>
       <c r="B1">
-        <v>0.85136999999999996</v>
+        <v>0.88168999999999997</v>
       </c>
       <c r="C1">
-        <v>0.86324500000000004</v>
+        <v>0.87199000000000004</v>
+      </c>
+      <c r="D1">
+        <v>0.87441000000000002</v>
+      </c>
+      <c r="E1">
+        <v>0.87060999999999999</v>
+      </c>
+      <c r="F1">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="G1">
+        <v>0.86597000000000002</v>
+      </c>
+      <c r="H1">
+        <v>0.84562000000000004</v>
+      </c>
+      <c r="I1">
+        <v>0.87404000000000004</v>
+      </c>
+      <c r="J1">
+        <v>0.87900999999999996</v>
+      </c>
+      <c r="K1">
+        <v>0.88409000000000004</v>
+      </c>
+      <c r="L1">
+        <v>0.86589000000000005</v>
+      </c>
+      <c r="M1">
+        <v>0.86651</v>
+      </c>
+      <c r="N1">
+        <v>0.87180999999999997</v>
+      </c>
+      <c r="O1">
+        <v>0.87082000000000004</v>
+      </c>
+      <c r="P1">
+        <v>0.87322</v>
+      </c>
+      <c r="Q1">
+        <v>0.88251000000000002</v>
+      </c>
+      <c r="R1">
+        <v>0.86497000000000002</v>
+      </c>
+      <c r="S1">
+        <v>0.88321000000000005</v>
+      </c>
+      <c r="T1">
+        <v>0.86151</v>
+      </c>
+      <c r="U1">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="W1">
+        <v>0.88068000000000002</v>
+      </c>
+      <c r="X1">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="Y1">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="Z1">
+        <v>0.86872000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.86892000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.87704000000000004</v>
+      </c>
+      <c r="AC1">
+        <v>0.85646</v>
+      </c>
+      <c r="AD1">
+        <v>0.84657000000000004</v>
+      </c>
+      <c r="AE1">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="AF1">
+        <v>0.87407000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.85067000000000004</v>
+      </c>
+      <c r="AH1">
+        <v>0.85607</v>
+      </c>
+      <c r="AI1">
+        <v>0.87046999999999997</v>
+      </c>
+      <c r="AJ1">
+        <v>0.84147000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.89734999999999998</v>
+      </c>
+      <c r="AL1">
+        <v>0.85526999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.87866</v>
+      </c>
+      <c r="AN1">
+        <v>0.87394000000000005</v>
+      </c>
+      <c r="AO1">
+        <v>0.84811999999999999</v>
+      </c>
+      <c r="AP1">
+        <v>0.87429000000000001</v>
+      </c>
+      <c r="AQ1">
+        <v>0.86680999999999997</v>
+      </c>
+      <c r="AR1">
+        <v>0.85226000000000002</v>
+      </c>
+      <c r="AS1">
+        <v>0.88712999999999997</v>
+      </c>
+      <c r="AT1">
+        <v>0.86126999999999998</v>
+      </c>
+      <c r="AU1">
+        <v>0.86561999999999995</v>
+      </c>
+      <c r="AV1">
+        <v>0.86822999999999995</v>
+      </c>
+      <c r="AW1">
+        <v>0.88273999999999997</v>
+      </c>
+      <c r="AX1">
+        <v>0.87880999999999998</v>
+      </c>
+      <c r="AY1">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="AZ1">
+        <v>0.88116000000000005</v>
+      </c>
+      <c r="BA1">
+        <v>0.83314999999999995</v>
+      </c>
+      <c r="BB1">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="BC1">
+        <v>0.87177000000000004</v>
+      </c>
+      <c r="BD1">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="BE1">
+        <v>0.87107999999999997</v>
+      </c>
+      <c r="BF1">
+        <v>0.87973000000000001</v>
+      </c>
+      <c r="BG1">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="BH1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="BI1">
+        <v>0.86143000000000003</v>
+      </c>
+      <c r="BJ1">
+        <v>0.84719</v>
+      </c>
+      <c r="BK1">
+        <v>0.87158999999999998</v>
+      </c>
+      <c r="BL1">
+        <v>0.85316999999999998</v>
+      </c>
+      <c r="BM1">
+        <v>0.86026000000000002</v>
+      </c>
+      <c r="BN1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.87636000000000003</v>
+      </c>
+      <c r="BP1">
+        <v>0.86563000000000001</v>
+      </c>
+      <c r="BQ1">
+        <v>0.84957000000000005</v>
+      </c>
+      <c r="BR1">
+        <v>0.85901000000000005</v>
+      </c>
+      <c r="BS1">
+        <v>0.86948999999999999</v>
+      </c>
+      <c r="BT1">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="BU1">
+        <v>0.84284999999999999</v>
+      </c>
+      <c r="BV1">
+        <v>0.86234999999999995</v>
+      </c>
+      <c r="BW1">
+        <v>0.86397000000000002</v>
+      </c>
+      <c r="BX1">
+        <v>0.88521000000000005</v>
+      </c>
+      <c r="BY1">
+        <v>0.88651000000000002</v>
+      </c>
+      <c r="BZ1">
+        <v>0.88585999999999998</v>
+      </c>
+      <c r="CA1">
+        <v>0.87809000000000004</v>
+      </c>
+      <c r="CB1">
+        <v>0.86875999999999998</v>
+      </c>
+      <c r="CC1">
+        <v>0.86939</v>
+      </c>
+      <c r="CD1">
+        <v>0.87133000000000005</v>
+      </c>
+      <c r="CE1">
+        <v>0.86246999999999996</v>
+      </c>
+      <c r="CF1">
+        <v>0.85035000000000005</v>
+      </c>
+      <c r="CG1">
+        <v>0.88412000000000002</v>
+      </c>
+      <c r="CH1">
+        <v>0.89709000000000005</v>
+      </c>
+      <c r="CI1">
+        <v>0.84857000000000005</v>
+      </c>
+      <c r="CJ1">
+        <v>0.88234000000000001</v>
+      </c>
+      <c r="CK1">
+        <v>0.87234999999999996</v>
+      </c>
+      <c r="CL1">
+        <v>0.85260999999999998</v>
+      </c>
+      <c r="CM1">
+        <v>0.87868000000000002</v>
+      </c>
+      <c r="CN1">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="CO1">
+        <v>0.88473000000000002</v>
+      </c>
+      <c r="CP1">
+        <v>0.84314999999999996</v>
+      </c>
+      <c r="CQ1">
+        <v>0.8629</v>
+      </c>
+      <c r="CR1">
+        <v>0.86595</v>
+      </c>
+      <c r="CS1">
+        <v>0.85687000000000002</v>
+      </c>
+      <c r="CT1">
+        <v>0.85141</v>
+      </c>
+      <c r="CU1">
+        <v>0.84272999999999998</v>
+      </c>
+      <c r="CV1">
+        <v>0.86411000000000004</v>
+      </c>
+      <c r="CW1">
+        <v>0.86741359999999956</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87909000000000004</v>
+        <v>0.85770000000000002</v>
       </c>
       <c r="B2">
-        <v>0.85963999999999996</v>
+        <v>0.86797000000000002</v>
       </c>
       <c r="C2">
-        <v>0.86936499999999994</v>
+        <v>0.87758000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.85967000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.85374000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.86292999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.86965000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.84367999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="K2">
+        <v>0.87289000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.87397000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.86965999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.87436999999999998</v>
+      </c>
+      <c r="O2">
+        <v>0.87709000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.85865999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.86555000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.86565000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.88236000000000003</v>
+      </c>
+      <c r="T2">
+        <v>0.86377000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.87178999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.87546999999999997</v>
+      </c>
+      <c r="W2">
+        <v>0.86117999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.84131</v>
+      </c>
+      <c r="Y2">
+        <v>0.87365999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0.85884000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>0.87404999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.84316000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.87078</v>
+      </c>
+      <c r="AD2">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.85733000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="AG2">
+        <v>0.87183999999999995</v>
+      </c>
+      <c r="AH2">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.83353999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87712999999999997</v>
+      </c>
+      <c r="AK2">
+        <v>0.85523000000000005</v>
+      </c>
+      <c r="AL2">
+        <v>0.88256000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>0.86814000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>0.87517</v>
+      </c>
+      <c r="AO2">
+        <v>0.87265999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.85189000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.85553000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>0.88465000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>0.87358999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>0.8609</v>
+      </c>
+      <c r="AV2">
+        <v>0.86482999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.87253000000000003</v>
+      </c>
+      <c r="AX2">
+        <v>0.84082000000000001</v>
+      </c>
+      <c r="AY2">
+        <v>0.87092000000000003</v>
+      </c>
+      <c r="AZ2">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="BA2">
+        <v>0.87197000000000002</v>
+      </c>
+      <c r="BB2">
+        <v>0.87234999999999996</v>
+      </c>
+      <c r="BC2">
+        <v>0.88071999999999995</v>
+      </c>
+      <c r="BD2">
+        <v>0.86151</v>
+      </c>
+      <c r="BE2">
+        <v>0.85248000000000002</v>
+      </c>
+      <c r="BF2">
+        <v>0.87287999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>0.87526000000000004</v>
+      </c>
+      <c r="BH2">
+        <v>0.85943999999999998</v>
+      </c>
+      <c r="BI2">
+        <v>0.86146999999999996</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86528000000000005</v>
+      </c>
+      <c r="BK2">
+        <v>0.86360999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.87566999999999995</v>
+      </c>
+      <c r="BM2">
+        <v>0.87434999999999996</v>
+      </c>
+      <c r="BN2">
+        <v>0.88077000000000005</v>
+      </c>
+      <c r="BO2">
+        <v>0.84946999999999995</v>
+      </c>
+      <c r="BP2">
+        <v>0.88927</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86980999999999997</v>
+      </c>
+      <c r="BR2">
+        <v>0.86536999999999997</v>
+      </c>
+      <c r="BS2">
+        <v>0.87099000000000004</v>
+      </c>
+      <c r="BT2">
+        <v>0.86141000000000001</v>
+      </c>
+      <c r="BU2">
+        <v>0.87971999999999995</v>
+      </c>
+      <c r="BV2">
+        <v>0.87211000000000005</v>
+      </c>
+      <c r="BW2">
+        <v>0.84977000000000003</v>
+      </c>
+      <c r="BX2">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="BY2">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.86014000000000002</v>
+      </c>
+      <c r="CA2">
+        <v>0.83955000000000002</v>
+      </c>
+      <c r="CB2">
+        <v>0.85867000000000004</v>
+      </c>
+      <c r="CC2">
+        <v>0.89098999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.86631999999999998</v>
+      </c>
+      <c r="CE2">
+        <v>0.86709000000000003</v>
+      </c>
+      <c r="CF2">
+        <v>0.85712999999999995</v>
+      </c>
+      <c r="CG2">
+        <v>0.87622999999999995</v>
+      </c>
+      <c r="CH2">
+        <v>0.87561999999999995</v>
+      </c>
+      <c r="CI2">
+        <v>0.87168999999999996</v>
+      </c>
+      <c r="CJ2">
+        <v>0.87114999999999998</v>
+      </c>
+      <c r="CK2">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="CL2">
+        <v>0.86665000000000003</v>
+      </c>
+      <c r="CM2">
+        <v>0.87175000000000002</v>
+      </c>
+      <c r="CN2">
+        <v>0.86978999999999995</v>
+      </c>
+      <c r="CO2">
+        <v>0.86112</v>
+      </c>
+      <c r="CP2">
+        <v>0.87497000000000003</v>
+      </c>
+      <c r="CQ2">
+        <v>0.88056999999999996</v>
+      </c>
+      <c r="CR2">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="CS2">
+        <v>0.85858000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>0.84402999999999995</v>
+      </c>
+      <c r="CU2">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.88976999999999995</v>
+      </c>
+      <c r="CW2">
+        <v>0.86623580000000033</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.87373999999999996</v>
+      </c>
+      <c r="B3">
+        <v>0.86009000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.85507</v>
+      </c>
+      <c r="D3">
+        <v>0.85889000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.83714999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.86880999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.83594000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.83387</v>
+      </c>
+      <c r="J3">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.86897000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.84672000000000003</v>
+      </c>
+      <c r="M3">
+        <v>0.85463999999999996</v>
+      </c>
+      <c r="N3">
+        <v>0.85133999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="P3">
+        <v>0.84802999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>0.86890999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.83262999999999998</v>
+      </c>
+      <c r="S3">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.85748000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="V3">
+        <v>0.85048000000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.87777000000000005</v>
+      </c>
+      <c r="X3">
+        <v>0.85592000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.85641</v>
+      </c>
+      <c r="Z3">
+        <v>0.86560999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.86648999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.86011000000000004</v>
+      </c>
+      <c r="AC3">
+        <v>0.87487999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.86809000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.87453999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.85975000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>0.86636000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>0.85548999999999997</v>
+      </c>
+      <c r="AI3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.81789000000000001</v>
+      </c>
+      <c r="AK3">
+        <v>0.86377999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.85987999999999998</v>
+      </c>
+      <c r="AM3">
+        <v>0.86226999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.85729</v>
+      </c>
+      <c r="AO3">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.88100999999999996</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85377000000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="AS3">
+        <v>0.84884000000000004</v>
+      </c>
+      <c r="AT3">
+        <v>0.85623000000000005</v>
+      </c>
+      <c r="AU3">
+        <v>0.87746999999999997</v>
+      </c>
+      <c r="AV3">
+        <v>0.87048000000000003</v>
+      </c>
+      <c r="AW3">
+        <v>0.83445000000000003</v>
+      </c>
+      <c r="AX3">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.85168999999999995</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87936999999999999</v>
+      </c>
+      <c r="BA3">
+        <v>0.84613000000000005</v>
+      </c>
+      <c r="BB3">
+        <v>0.85596000000000005</v>
+      </c>
+      <c r="BC3">
+        <v>0.86828000000000005</v>
+      </c>
+      <c r="BD3">
+        <v>0.83808000000000005</v>
+      </c>
+      <c r="BE3">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="BF3">
+        <v>0.84672999999999998</v>
+      </c>
+      <c r="BG3">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="BH3">
+        <v>0.86753000000000002</v>
+      </c>
+      <c r="BI3">
+        <v>0.84592999999999996</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84591000000000005</v>
+      </c>
+      <c r="BK3">
+        <v>0.84914999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.83943000000000001</v>
+      </c>
+      <c r="BM3">
+        <v>0.84657000000000004</v>
+      </c>
+      <c r="BN3">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="BO3">
+        <v>0.86614999999999998</v>
+      </c>
+      <c r="BP3">
+        <v>0.86019000000000001</v>
+      </c>
+      <c r="BQ3">
+        <v>0.86207</v>
+      </c>
+      <c r="BR3">
+        <v>0.86407</v>
+      </c>
+      <c r="BS3">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="BT3">
+        <v>0.87527999999999995</v>
+      </c>
+      <c r="BU3">
+        <v>0.85816000000000003</v>
+      </c>
+      <c r="BV3">
+        <v>0.86097999999999997</v>
+      </c>
+      <c r="BW3">
+        <v>0.86377999999999999</v>
+      </c>
+      <c r="BX3">
+        <v>0.86467000000000005</v>
+      </c>
+      <c r="BY3">
+        <v>0.85492999999999997</v>
+      </c>
+      <c r="BZ3">
+        <v>0.87888999999999995</v>
+      </c>
+      <c r="CA3">
+        <v>0.86221000000000003</v>
+      </c>
+      <c r="CB3">
+        <v>0.87787999999999999</v>
+      </c>
+      <c r="CC3">
+        <v>0.84192</v>
+      </c>
+      <c r="CD3">
+        <v>0.86417999999999995</v>
+      </c>
+      <c r="CE3">
+        <v>0.83814999999999995</v>
+      </c>
+      <c r="CF3">
+        <v>0.87463999999999997</v>
+      </c>
+      <c r="CG3">
+        <v>0.85224999999999995</v>
+      </c>
+      <c r="CH3">
+        <v>0.84723999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.86089000000000004</v>
+      </c>
+      <c r="CJ3">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="CK3">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.82747000000000004</v>
+      </c>
+      <c r="CM3">
+        <v>0.85038000000000002</v>
+      </c>
+      <c r="CN3">
+        <v>0.85838000000000003</v>
+      </c>
+      <c r="CO3">
+        <v>0.86033999999999999</v>
+      </c>
+      <c r="CP3">
+        <v>0.85084000000000004</v>
+      </c>
+      <c r="CQ3">
+        <v>0.86348999999999998</v>
+      </c>
+      <c r="CR3">
+        <v>0.87943000000000005</v>
+      </c>
+      <c r="CS3">
+        <v>0.86390999999999996</v>
+      </c>
+      <c r="CT3">
+        <v>0.84767999999999999</v>
+      </c>
+      <c r="CU3">
+        <v>0.84165999999999996</v>
+      </c>
+      <c r="CV3">
+        <v>0.86885000000000001</v>
+      </c>
+      <c r="CW3">
+        <v>0.85695410000000027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.87744</v>
+      </c>
+      <c r="B4">
+        <v>0.87180999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.85724999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.84375999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.85328999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.84136</v>
+      </c>
+      <c r="H4">
+        <v>0.83940999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.84094000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.84245000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.84431</v>
+      </c>
+      <c r="L4">
+        <v>0.85057000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.85858000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.85053000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.87727999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.85058999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>0.87114000000000003</v>
+      </c>
+      <c r="R4">
+        <v>0.86148999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.86334999999999995</v>
+      </c>
+      <c r="T4">
+        <v>0.86592000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.84035000000000004</v>
+      </c>
+      <c r="V4">
+        <v>0.84197</v>
+      </c>
+      <c r="W4">
+        <v>0.87778999999999996</v>
+      </c>
+      <c r="X4">
+        <v>0.86267000000000005</v>
+      </c>
+      <c r="Y4">
+        <v>0.83936999999999995</v>
+      </c>
+      <c r="Z4">
+        <v>0.85887000000000002</v>
+      </c>
+      <c r="AA4">
+        <v>0.86079000000000006</v>
+      </c>
+      <c r="AB4">
+        <v>0.83779000000000003</v>
+      </c>
+      <c r="AC4">
+        <v>0.86421999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.85158</v>
+      </c>
+      <c r="AE4">
+        <v>0.86263000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>0.84399000000000002</v>
+      </c>
+      <c r="AG4">
+        <v>0.87258000000000002</v>
+      </c>
+      <c r="AH4">
+        <v>0.85396000000000005</v>
+      </c>
+      <c r="AI4">
+        <v>0.86143999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>0.84624999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.86245000000000005</v>
+      </c>
+      <c r="AL4">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="AM4">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="AN4">
+        <v>0.85185999999999995</v>
+      </c>
+      <c r="AO4">
+        <v>0.83467999999999998</v>
+      </c>
+      <c r="AP4">
+        <v>0.85955999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85606000000000004</v>
+      </c>
+      <c r="AR4">
+        <v>0.87702000000000002</v>
+      </c>
+      <c r="AS4">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="AT4">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="AU4">
+        <v>0.82842000000000005</v>
+      </c>
+      <c r="AV4">
+        <v>0.86126999999999998</v>
+      </c>
+      <c r="AW4">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>0.83877000000000002</v>
+      </c>
+      <c r="AY4">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="BA4">
+        <v>0.85287000000000002</v>
+      </c>
+      <c r="BB4">
+        <v>0.85426999999999997</v>
+      </c>
+      <c r="BC4">
+        <v>0.88063999999999998</v>
+      </c>
+      <c r="BD4">
+        <v>0.83745999999999998</v>
+      </c>
+      <c r="BE4">
+        <v>0.86558999999999997</v>
+      </c>
+      <c r="BF4">
+        <v>0.82672000000000001</v>
+      </c>
+      <c r="BG4">
+        <v>0.86533000000000004</v>
+      </c>
+      <c r="BH4">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="BI4">
+        <v>0.86006000000000005</v>
+      </c>
+      <c r="BJ4">
+        <v>0.85019</v>
+      </c>
+      <c r="BK4">
+        <v>0.87495000000000001</v>
+      </c>
+      <c r="BL4">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="BM4">
+        <v>0.83862000000000003</v>
+      </c>
+      <c r="BN4">
+        <v>0.82125000000000004</v>
+      </c>
+      <c r="BO4">
+        <v>0.86909999999999998</v>
+      </c>
+      <c r="BP4">
+        <v>0.87129000000000001</v>
+      </c>
+      <c r="BQ4">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="BR4">
+        <v>0.83625000000000005</v>
+      </c>
+      <c r="BS4">
+        <v>0.85279000000000005</v>
+      </c>
+      <c r="BT4">
+        <v>0.84123000000000003</v>
+      </c>
+      <c r="BU4">
+        <v>0.86992000000000003</v>
+      </c>
+      <c r="BV4">
+        <v>0.82542000000000004</v>
+      </c>
+      <c r="BW4">
+        <v>0.85175999999999996</v>
+      </c>
+      <c r="BX4">
+        <v>0.84728000000000003</v>
+      </c>
+      <c r="BY4">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88031000000000004</v>
+      </c>
+      <c r="CA4">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="CB4">
+        <v>0.84653999999999996</v>
+      </c>
+      <c r="CC4">
+        <v>0.85572999999999999</v>
+      </c>
+      <c r="CD4">
+        <v>0.82967000000000002</v>
+      </c>
+      <c r="CE4">
+        <v>0.88107000000000002</v>
+      </c>
+      <c r="CF4">
+        <v>0.86182999999999998</v>
+      </c>
+      <c r="CG4">
+        <v>0.83782000000000001</v>
+      </c>
+      <c r="CH4">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="CI4">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="CJ4">
+        <v>0.84838999999999998</v>
+      </c>
+      <c r="CK4">
+        <v>0.86734</v>
+      </c>
+      <c r="CL4">
+        <v>0.86404000000000003</v>
+      </c>
+      <c r="CM4">
+        <v>0.87012999999999996</v>
+      </c>
+      <c r="CN4">
+        <v>0.87797999999999998</v>
+      </c>
+      <c r="CO4">
+        <v>0.87922</v>
+      </c>
+      <c r="CP4">
+        <v>0.86265000000000003</v>
+      </c>
+      <c r="CQ4">
+        <v>0.86638000000000004</v>
+      </c>
+      <c r="CR4">
+        <v>0.88158999999999998</v>
+      </c>
+      <c r="CS4">
         <v>0.84282999999999997</v>
       </c>
-      <c r="B3">
-        <v>0.86297999999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.85290500000000002</v>
+      <c r="CT4">
+        <v>0.85148999999999997</v>
+      </c>
+      <c r="CU4">
+        <v>0.86877000000000004</v>
+      </c>
+      <c r="CV4">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="CW4">
+        <v>0.85611719999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.82410000000000005</v>
-      </c>
-      <c r="B4">
-        <v>0.87017999999999995</v>
-      </c>
-      <c r="C4">
-        <v>0.84714</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.85282999999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.86314000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.84909000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="E5">
+        <v>0.83001000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.83926000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.86831999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.86199000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.87897999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.82223999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.85457000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.83821000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.83423000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.86563999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.82121</v>
+      </c>
+      <c r="P5">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.85536999999999996</v>
+      </c>
+      <c r="R5">
+        <v>0.84521999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.85102</v>
+      </c>
+      <c r="T5">
+        <v>0.85292000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.85577000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.87005999999999994</v>
+      </c>
+      <c r="X5">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="Y5">
+        <v>0.84041999999999994</v>
+      </c>
+      <c r="Z5">
+        <v>0.87158999999999998</v>
+      </c>
+      <c r="AA5">
+        <v>0.86045000000000005</v>
+      </c>
+      <c r="AB5">
+        <v>0.85641</v>
+      </c>
+      <c r="AC5">
+        <v>0.86209000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>0.85555999999999999</v>
+      </c>
+      <c r="AE5">
+        <v>0.85450999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.85741000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.83753</v>
+      </c>
+      <c r="AI5">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="AJ5">
+        <v>0.84653</v>
+      </c>
+      <c r="AK5">
+        <v>0.85182999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="AM5">
+        <v>0.85287999999999997</v>
+      </c>
+      <c r="AN5">
+        <v>0.83187999999999995</v>
+      </c>
+      <c r="AO5">
+        <v>0.85819000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.84321000000000002</v>
+      </c>
+      <c r="AQ5">
+        <v>0.85565000000000002</v>
+      </c>
+      <c r="AR5">
+        <v>0.86116000000000004</v>
+      </c>
+      <c r="AS5">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="AT5">
+        <v>0.85411999999999999</v>
+      </c>
+      <c r="AU5">
+        <v>0.87595999999999996</v>
+      </c>
+      <c r="AV5">
+        <v>0.87126000000000003</v>
+      </c>
+      <c r="AW5">
+        <v>0.85075999999999996</v>
+      </c>
+      <c r="AX5">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="AZ5">
+        <v>0.85423000000000004</v>
+      </c>
+      <c r="BA5">
+        <v>0.85445000000000004</v>
+      </c>
+      <c r="BB5">
+        <v>0.84916999999999998</v>
+      </c>
+      <c r="BC5">
+        <v>0.82401000000000002</v>
+      </c>
+      <c r="BD5">
+        <v>0.84682999999999997</v>
+      </c>
+      <c r="BE5">
+        <v>0.82728000000000002</v>
+      </c>
+      <c r="BF5">
+        <v>0.86453000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.86434</v>
+      </c>
+      <c r="BH5">
+        <v>0.84792000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="BJ5">
+        <v>0.84038000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>0.86482999999999999</v>
+      </c>
+      <c r="BL5">
+        <v>0.86055000000000004</v>
+      </c>
+      <c r="BM5">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="BN5">
+        <v>0.82994999999999997</v>
+      </c>
+      <c r="BO5">
+        <v>0.84882999999999997</v>
+      </c>
+      <c r="BP5">
+        <v>0.85675999999999997</v>
+      </c>
+      <c r="BQ5">
+        <v>0.87305999999999995</v>
+      </c>
+      <c r="BR5">
+        <v>0.84719</v>
+      </c>
+      <c r="BS5">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="BT5">
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="BU5">
+        <v>0.83294000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>0.83608000000000005</v>
+      </c>
+      <c r="BW5">
+        <v>0.85277000000000003</v>
+      </c>
+      <c r="BX5">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>0.85246999999999995</v>
+      </c>
+      <c r="BZ5">
+        <v>0.84575</v>
+      </c>
+      <c r="CA5">
+        <v>0.82164999999999999</v>
+      </c>
+      <c r="CB5">
+        <v>0.86026999999999998</v>
+      </c>
+      <c r="CC5">
+        <v>0.85355000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.83936999999999995</v>
+      </c>
+      <c r="CE5">
+        <v>0.85026000000000002</v>
+      </c>
+      <c r="CF5">
+        <v>0.85363</v>
+      </c>
+      <c r="CG5">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="CH5">
+        <v>0.85457000000000005</v>
+      </c>
+      <c r="CI5">
+        <v>0.83794999999999997</v>
+      </c>
+      <c r="CJ5">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="CK5">
+        <v>0.84841999999999995</v>
+      </c>
+      <c r="CL5">
+        <v>0.83587</v>
+      </c>
+      <c r="CM5">
+        <v>0.83967999999999998</v>
+      </c>
+      <c r="CN5">
+        <v>0.84391000000000005</v>
+      </c>
+      <c r="CO5">
+        <v>0.85145000000000004</v>
+      </c>
+      <c r="CP5">
+        <v>0.83338999999999996</v>
+      </c>
+      <c r="CQ5">
+        <v>0.84982000000000002</v>
+      </c>
+      <c r="CR5">
+        <v>0.85050999999999999</v>
+      </c>
+      <c r="CS5">
+        <v>0.84575</v>
+      </c>
+      <c r="CT5">
+        <v>0.86567000000000005</v>
+      </c>
+      <c r="CU5">
+        <v>0.84918000000000005</v>
+      </c>
+      <c r="CV5">
+        <v>0.83296999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.8496189999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="B5">
-        <v>0.85194000000000003</v>
-      </c>
-      <c r="C5">
-        <v>0.85346999999999995</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.85646</v>
+      </c>
+      <c r="B6">
+        <v>0.85338000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.82815000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.86719000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.86434999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.84386000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.84433999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.85531000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.84797</v>
+      </c>
+      <c r="K6">
+        <v>0.85648000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.83823000000000003</v>
+      </c>
+      <c r="M6">
+        <v>0.81040999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.85426999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.86628000000000005</v>
+      </c>
+      <c r="P6">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="Q6">
+        <v>0.84838999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.86375999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.86092000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.86256999999999995</v>
+      </c>
+      <c r="V6">
+        <v>0.84904999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="X6">
+        <v>0.86914999999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.83925000000000005</v>
+      </c>
+      <c r="Z6">
+        <v>0.85918000000000005</v>
+      </c>
+      <c r="AA6">
+        <v>0.84494000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>0.84909000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.85343000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>0.85045000000000004</v>
+      </c>
+      <c r="AE6">
+        <v>0.86036000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>0.85414999999999996</v>
+      </c>
+      <c r="AG6">
+        <v>0.84162000000000003</v>
+      </c>
+      <c r="AH6">
+        <v>0.81791999999999998</v>
+      </c>
+      <c r="AI6">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.85555999999999999</v>
+      </c>
+      <c r="AL6">
+        <v>0.85297999999999996</v>
+      </c>
+      <c r="AM6">
+        <v>0.85285</v>
+      </c>
+      <c r="AN6">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="AO6">
+        <v>0.85065000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>0.84841</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84575</v>
+      </c>
+      <c r="AR6">
+        <v>0.86548999999999998</v>
+      </c>
+      <c r="AS6">
+        <v>0.83375999999999995</v>
+      </c>
+      <c r="AT6">
+        <v>0.84787999999999997</v>
+      </c>
+      <c r="AU6">
+        <v>0.84116999999999997</v>
+      </c>
+      <c r="AV6">
+        <v>0.86246</v>
+      </c>
+      <c r="AW6">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AX6">
+        <v>0.85955000000000004</v>
+      </c>
+      <c r="AY6">
+        <v>0.86265000000000003</v>
+      </c>
+      <c r="AZ6">
+        <v>0.85877000000000003</v>
+      </c>
+      <c r="BA6">
+        <v>0.86546000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.83326</v>
+      </c>
+      <c r="BC6">
+        <v>0.86402999999999996</v>
+      </c>
+      <c r="BD6">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="BE6">
+        <v>0.83316999999999997</v>
+      </c>
+      <c r="BF6">
+        <v>0.86021000000000003</v>
+      </c>
+      <c r="BG6">
+        <v>0.85397000000000001</v>
+      </c>
+      <c r="BH6">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="BI6">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="BJ6">
+        <v>0.85528999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>0.84565999999999997</v>
+      </c>
+      <c r="BL6">
+        <v>0.83753999999999995</v>
+      </c>
+      <c r="BM6">
+        <v>0.85906000000000005</v>
+      </c>
+      <c r="BN6">
+        <v>0.85628000000000004</v>
+      </c>
+      <c r="BO6">
+        <v>0.85726999999999998</v>
+      </c>
+      <c r="BP6">
+        <v>0.82321999999999995</v>
+      </c>
+      <c r="BQ6">
+        <v>0.84997999999999996</v>
+      </c>
+      <c r="BR6">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="BS6">
+        <v>0.84816000000000003</v>
+      </c>
+      <c r="BT6">
+        <v>0.87138000000000004</v>
+      </c>
+      <c r="BU6">
+        <v>0.83757000000000004</v>
+      </c>
+      <c r="BV6">
+        <v>0.84641</v>
+      </c>
+      <c r="BW6">
+        <v>0.85228000000000004</v>
+      </c>
+      <c r="BX6">
+        <v>0.83918999999999999</v>
+      </c>
+      <c r="BY6">
+        <v>0.83911000000000002</v>
+      </c>
+      <c r="BZ6">
+        <v>0.86145000000000005</v>
+      </c>
+      <c r="CA6">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="CB6">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="CC6">
+        <v>0.85214000000000001</v>
+      </c>
+      <c r="CD6">
+        <v>0.84975000000000001</v>
+      </c>
+      <c r="CE6">
+        <v>0.84026999999999996</v>
+      </c>
+      <c r="CF6">
+        <v>0.81747999999999998</v>
+      </c>
+      <c r="CG6">
+        <v>0.85514999999999997</v>
+      </c>
+      <c r="CH6">
+        <v>0.85</v>
+      </c>
+      <c r="CI6">
+        <v>0.86446000000000001</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84701000000000004</v>
+      </c>
+      <c r="CK6">
+        <v>0.85114999999999996</v>
+      </c>
+      <c r="CL6">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="CM6">
+        <v>0.87834000000000001</v>
+      </c>
+      <c r="CN6">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="CO6">
+        <v>0.84838999999999998</v>
+      </c>
+      <c r="CP6">
+        <v>0.85287000000000002</v>
+      </c>
+      <c r="CQ6">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="CR6">
+        <v>0.87024999999999997</v>
+      </c>
+      <c r="CS6">
+        <v>0.81127000000000005</v>
+      </c>
+      <c r="CT6">
+        <v>0.86378999999999995</v>
+      </c>
+      <c r="CU6">
+        <v>0.85546</v>
+      </c>
+      <c r="CV6">
+        <v>0.84174000000000004</v>
+      </c>
+      <c r="CW6">
+        <v>0.85087909999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.84653999999999996</v>
-      </c>
-      <c r="B6">
-        <v>0.84557000000000004</v>
-      </c>
-      <c r="C6">
-        <v>0.846055</v>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.82621999999999995</v>
+      </c>
+      <c r="B7">
+        <v>0.85565000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.84065000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.84857000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.85475000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.81745000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.86804000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.84736999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="K7">
+        <v>0.82752000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.84184000000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.84475</v>
+      </c>
+      <c r="O7">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.85263</v>
+      </c>
+      <c r="Q7">
+        <v>0.83962999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.85351999999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.82754000000000005</v>
+      </c>
+      <c r="T7">
+        <v>0.83316000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.81930999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.83443000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="X7">
+        <v>0.84208000000000005</v>
+      </c>
+      <c r="Y7">
+        <v>0.81635999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.85467000000000004</v>
+      </c>
+      <c r="AA7">
+        <v>0.83462000000000003</v>
+      </c>
+      <c r="AB7">
+        <v>0.85685</v>
+      </c>
+      <c r="AC7">
+        <v>0.83743999999999996</v>
+      </c>
+      <c r="AD7">
+        <v>0.86224999999999996</v>
+      </c>
+      <c r="AE7">
+        <v>0.87726999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.85107999999999995</v>
+      </c>
+      <c r="AG7">
+        <v>0.82881000000000005</v>
+      </c>
+      <c r="AH7">
+        <v>0.85045000000000004</v>
+      </c>
+      <c r="AI7">
+        <v>0.84409000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.84711999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.85316000000000003</v>
+      </c>
+      <c r="AM7">
+        <v>0.86158999999999997</v>
+      </c>
+      <c r="AN7">
+        <v>0.8296</v>
+      </c>
+      <c r="AO7">
+        <v>0.83074999999999999</v>
+      </c>
+      <c r="AP7">
+        <v>0.85099000000000002</v>
+      </c>
+      <c r="AQ7">
+        <v>0.84801000000000004</v>
+      </c>
+      <c r="AR7">
+        <v>0.81572</v>
+      </c>
+      <c r="AS7">
+        <v>0.86646000000000001</v>
+      </c>
+      <c r="AT7">
+        <v>0.84455999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.85518000000000005</v>
+      </c>
+      <c r="AV7">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="AW7">
+        <v>0.83431999999999995</v>
+      </c>
+      <c r="AX7">
+        <v>0.86633000000000004</v>
+      </c>
+      <c r="AY7">
+        <v>0.83784999999999998</v>
+      </c>
+      <c r="AZ7">
+        <v>0.85863</v>
+      </c>
+      <c r="BA7">
+        <v>0.85301000000000005</v>
+      </c>
+      <c r="BB7">
+        <v>0.85907</v>
+      </c>
+      <c r="BC7">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="BD7">
+        <v>0.84082999999999997</v>
+      </c>
+      <c r="BE7">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="BG7">
+        <v>0.83323000000000003</v>
+      </c>
+      <c r="BH7">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="BI7">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>0.83294000000000001</v>
+      </c>
+      <c r="BK7">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="BL7">
+        <v>0.84204999999999997</v>
+      </c>
+      <c r="BM7">
+        <v>0.84384999999999999</v>
+      </c>
+      <c r="BN7">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="BO7">
+        <v>0.85155999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.81108999999999998</v>
+      </c>
+      <c r="BQ7">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="BR7">
+        <v>0.86855000000000004</v>
+      </c>
+      <c r="BS7">
+        <v>0.86380999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.83911000000000002</v>
+      </c>
+      <c r="BU7">
+        <v>0.81189</v>
+      </c>
+      <c r="BV7">
+        <v>0.85326000000000002</v>
+      </c>
+      <c r="BW7">
+        <v>0.83452999999999999</v>
+      </c>
+      <c r="BX7">
+        <v>0.83165</v>
+      </c>
+      <c r="BY7">
+        <v>0.85179000000000005</v>
+      </c>
+      <c r="BZ7">
+        <v>0.85165000000000002</v>
+      </c>
+      <c r="CA7">
+        <v>0.83923999999999999</v>
+      </c>
+      <c r="CB7">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="CC7">
+        <v>0.81613000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>0.85302999999999995</v>
+      </c>
+      <c r="CE7">
+        <v>0.86665000000000003</v>
+      </c>
+      <c r="CF7">
+        <v>0.82403999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.87597999999999998</v>
+      </c>
+      <c r="CH7">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="CI7">
+        <v>0.87222</v>
+      </c>
+      <c r="CJ7">
+        <v>0.84221999999999997</v>
+      </c>
+      <c r="CK7">
+        <v>0.84396000000000004</v>
+      </c>
+      <c r="CL7">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="CM7">
+        <v>0.83970999999999996</v>
+      </c>
+      <c r="CN7">
+        <v>0.84997</v>
+      </c>
+      <c r="CO7">
+        <v>0.84726000000000001</v>
+      </c>
+      <c r="CP7">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="CQ7">
+        <v>0.82630999999999999</v>
+      </c>
+      <c r="CR7">
+        <v>0.84104000000000001</v>
+      </c>
+      <c r="CS7">
+        <v>0.84455999999999998</v>
+      </c>
+      <c r="CT7">
+        <v>0.83618000000000003</v>
+      </c>
+      <c r="CU7">
+        <v>0.83498000000000006</v>
+      </c>
+      <c r="CV7">
+        <v>0.83914</v>
+      </c>
+      <c r="CW7">
+        <v>0.84519539999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.83974000000000004</v>
-      </c>
-      <c r="B7">
-        <v>0.84585999999999995</v>
-      </c>
-      <c r="C7">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.84828999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.83962000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.84665000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.85768999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.84487999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.83043999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.84279000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="J8">
+        <v>0.83906999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.84443999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.84465999999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.85124</v>
+      </c>
+      <c r="N8">
+        <v>0.84892999999999996</v>
+      </c>
+      <c r="O8">
+        <v>0.84101000000000004</v>
+      </c>
+      <c r="P8">
+        <v>0.83221999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>0.84026999999999996</v>
+      </c>
+      <c r="R8">
+        <v>0.81740999999999997</v>
+      </c>
+      <c r="S8">
+        <v>0.82052000000000003</v>
+      </c>
+      <c r="T8">
+        <v>0.84457000000000004</v>
+      </c>
+      <c r="U8">
+        <v>0.84706000000000004</v>
+      </c>
+      <c r="V8">
+        <v>0.86014999999999997</v>
+      </c>
+      <c r="W8">
+        <v>0.85768</v>
+      </c>
+      <c r="X8">
+        <v>0.84062000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>0.85760999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>0.83296000000000003</v>
+      </c>
+      <c r="AA8">
+        <v>0.83270999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>0.84487000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.84480999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.82903000000000004</v>
+      </c>
+      <c r="AE8">
+        <v>0.86084000000000005</v>
+      </c>
+      <c r="AF8">
+        <v>0.84409000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.82443</v>
+      </c>
+      <c r="AH8">
+        <v>0.82784000000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.83838999999999997</v>
+      </c>
+      <c r="AJ8">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="AK8">
+        <v>0.83069000000000004</v>
+      </c>
+      <c r="AL8">
         <v>0.84279999999999999</v>
       </c>
+      <c r="AM8">
+        <v>0.83101000000000003</v>
+      </c>
+      <c r="AN8">
+        <v>0.82318999999999998</v>
+      </c>
+      <c r="AO8">
+        <v>0.84848999999999997</v>
+      </c>
+      <c r="AP8">
+        <v>0.84304000000000001</v>
+      </c>
+      <c r="AQ8">
+        <v>0.83257999999999999</v>
+      </c>
+      <c r="AR8">
+        <v>0.84409000000000001</v>
+      </c>
+      <c r="AS8">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>0.85858999999999996</v>
+      </c>
+      <c r="AU8">
+        <v>0.85490999999999995</v>
+      </c>
+      <c r="AV8">
+        <v>0.83416999999999997</v>
+      </c>
+      <c r="AW8">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="AX8">
+        <v>0.83379000000000003</v>
+      </c>
+      <c r="AY8">
+        <v>0.84999000000000002</v>
+      </c>
+      <c r="AZ8">
+        <v>0.81093999999999999</v>
+      </c>
+      <c r="BA8">
+        <v>0.83672000000000002</v>
+      </c>
+      <c r="BB8">
+        <v>0.84241999999999995</v>
+      </c>
+      <c r="BC8">
+        <v>0.82974999999999999</v>
+      </c>
+      <c r="BD8">
+        <v>0.85274000000000005</v>
+      </c>
+      <c r="BE8">
+        <v>0.81445999999999996</v>
+      </c>
+      <c r="BF8">
+        <v>0.84835000000000005</v>
+      </c>
+      <c r="BG8">
+        <v>0.83757000000000004</v>
+      </c>
+      <c r="BH8">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="BI8">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="BJ8">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="BK8">
+        <v>0.85172000000000003</v>
+      </c>
+      <c r="BL8">
+        <v>0.83921999999999997</v>
+      </c>
+      <c r="BM8">
+        <v>0.83872999999999998</v>
+      </c>
+      <c r="BN8">
+        <v>0.83098000000000005</v>
+      </c>
+      <c r="BO8">
+        <v>0.84304000000000001</v>
+      </c>
+      <c r="BP8">
+        <v>0.84125000000000005</v>
+      </c>
+      <c r="BQ8">
+        <v>0.87022999999999995</v>
+      </c>
+      <c r="BR8">
+        <v>0.84355000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="BT8">
+        <v>0.83592999999999995</v>
+      </c>
+      <c r="BU8">
+        <v>0.84704000000000002</v>
+      </c>
+      <c r="BV8">
+        <v>0.83174999999999999</v>
+      </c>
+      <c r="BW8">
+        <v>0.85014999999999996</v>
+      </c>
+      <c r="BX8">
+        <v>0.83191000000000004</v>
+      </c>
+      <c r="BY8">
+        <v>0.84216000000000002</v>
+      </c>
+      <c r="BZ8">
+        <v>0.86846000000000001</v>
+      </c>
+      <c r="CA8">
+        <v>0.84084000000000003</v>
+      </c>
+      <c r="CB8">
+        <v>0.81611999999999996</v>
+      </c>
+      <c r="CC8">
+        <v>0.85301000000000005</v>
+      </c>
+      <c r="CD8">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="CE8">
+        <v>0.83294999999999997</v>
+      </c>
+      <c r="CF8">
+        <v>0.84675</v>
+      </c>
+      <c r="CG8">
+        <v>0.84055999999999997</v>
+      </c>
+      <c r="CH8">
+        <v>0.84389000000000003</v>
+      </c>
+      <c r="CI8">
+        <v>0.82682999999999995</v>
+      </c>
+      <c r="CJ8">
+        <v>0.85567000000000004</v>
+      </c>
+      <c r="CK8">
+        <v>0.84284999999999999</v>
+      </c>
+      <c r="CL8">
+        <v>0.80861000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.84979000000000005</v>
+      </c>
+      <c r="CN8">
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="CO8">
+        <v>0.86829000000000001</v>
+      </c>
+      <c r="CP8">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="CQ8">
+        <v>0.84255999999999998</v>
+      </c>
+      <c r="CR8">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="CS8">
+        <v>0.82289000000000001</v>
+      </c>
+      <c r="CT8">
+        <v>0.83548</v>
+      </c>
+      <c r="CU8">
+        <v>0.84062000000000003</v>
+      </c>
+      <c r="CV8">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="CW8">
+        <v>0.84111910000000012</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.83716999999999997</v>
-      </c>
-      <c r="B8">
-        <v>0.83182</v>
-      </c>
-      <c r="C8">
-        <v>0.83449499999999999</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.8538</v>
+      </c>
+      <c r="B9">
+        <v>0.84968999999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.85109000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.85111999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.82443999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.83270999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.84504000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.82445999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.82593000000000005</v>
+      </c>
+      <c r="K9">
+        <v>0.84531999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.84796000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.82155999999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="O9">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="P9">
+        <v>0.82687999999999995</v>
+      </c>
+      <c r="Q9">
+        <v>0.85904999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.85282999999999998</v>
+      </c>
+      <c r="S9">
+        <v>0.84223000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.85504999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.83574000000000004</v>
+      </c>
+      <c r="V9">
+        <v>0.83538000000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.85699000000000003</v>
+      </c>
+      <c r="X9">
+        <v>0.83903000000000005</v>
+      </c>
+      <c r="Y9">
+        <v>0.85816000000000003</v>
+      </c>
+      <c r="Z9">
+        <v>0.82801999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.86617999999999995</v>
+      </c>
+      <c r="AB9">
+        <v>0.86380999999999997</v>
+      </c>
+      <c r="AC9">
+        <v>0.84480999999999995</v>
+      </c>
+      <c r="AD9">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="AE9">
+        <v>0.83457000000000003</v>
+      </c>
+      <c r="AF9">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="AG9">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.85979000000000005</v>
+      </c>
+      <c r="AI9">
+        <v>0.85609000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>0.85241</v>
+      </c>
+      <c r="AK9">
+        <v>0.83955999999999997</v>
+      </c>
+      <c r="AL9">
+        <v>0.83987000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="AN9">
+        <v>0.84202999999999995</v>
+      </c>
+      <c r="AO9">
+        <v>0.85646</v>
+      </c>
+      <c r="AP9">
+        <v>0.84263999999999994</v>
+      </c>
+      <c r="AQ9">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="AR9">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="AS9">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="AT9">
+        <v>0.82915000000000005</v>
+      </c>
+      <c r="AU9">
+        <v>0.84447000000000005</v>
+      </c>
+      <c r="AV9">
+        <v>0.85446999999999995</v>
+      </c>
+      <c r="AW9">
+        <v>0.83843000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>0.83597999999999995</v>
+      </c>
+      <c r="AY9">
+        <v>0.82918000000000003</v>
+      </c>
+      <c r="AZ9">
+        <v>0.82791999999999999</v>
+      </c>
+      <c r="BA9">
+        <v>0.84458999999999995</v>
+      </c>
+      <c r="BB9">
+        <v>0.84665000000000001</v>
+      </c>
+      <c r="BC9">
+        <v>0.85145999999999999</v>
+      </c>
+      <c r="BD9">
+        <v>0.85084000000000004</v>
+      </c>
+      <c r="BE9">
+        <v>0.85306000000000004</v>
+      </c>
+      <c r="BF9">
+        <v>0.84719</v>
+      </c>
+      <c r="BG9">
+        <v>0.84206000000000003</v>
+      </c>
+      <c r="BH9">
+        <v>0.85684000000000005</v>
+      </c>
+      <c r="BI9">
+        <v>0.84662000000000004</v>
+      </c>
+      <c r="BJ9">
+        <v>0.85321000000000002</v>
+      </c>
+      <c r="BK9">
+        <v>0.85638000000000003</v>
+      </c>
+      <c r="BL9">
+        <v>0.84592999999999996</v>
+      </c>
+      <c r="BM9">
+        <v>0.82657000000000003</v>
+      </c>
+      <c r="BN9">
+        <v>0.8458</v>
+      </c>
+      <c r="BO9">
+        <v>0.82179000000000002</v>
+      </c>
+      <c r="BP9">
+        <v>0.83626</v>
+      </c>
+      <c r="BQ9">
+        <v>0.84855000000000003</v>
+      </c>
+      <c r="BR9">
+        <v>0.83957000000000004</v>
+      </c>
+      <c r="BS9">
+        <v>0.83604000000000001</v>
+      </c>
+      <c r="BT9">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="BU9">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="BV9">
+        <v>0.85858999999999996</v>
+      </c>
+      <c r="BW9">
+        <v>0.83682999999999996</v>
+      </c>
+      <c r="BX9">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="BY9">
+        <v>0.83164000000000005</v>
+      </c>
+      <c r="BZ9">
+        <v>0.83270999999999995</v>
+      </c>
+      <c r="CA9">
+        <v>0.85284000000000004</v>
+      </c>
+      <c r="CB9">
+        <v>0.84565999999999997</v>
+      </c>
+      <c r="CC9">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="CD9">
+        <v>0.82526999999999995</v>
+      </c>
+      <c r="CE9">
+        <v>0.85596000000000005</v>
+      </c>
+      <c r="CF9">
+        <v>0.84060999999999997</v>
+      </c>
+      <c r="CG9">
+        <v>0.82821</v>
+      </c>
+      <c r="CH9">
+        <v>0.82830999999999999</v>
+      </c>
+      <c r="CI9">
+        <v>0.82215000000000005</v>
+      </c>
+      <c r="CJ9">
+        <v>0.83137000000000005</v>
+      </c>
+      <c r="CK9">
+        <v>0.83960999999999997</v>
+      </c>
+      <c r="CL9">
+        <v>0.82218999999999998</v>
+      </c>
+      <c r="CM9">
+        <v>0.83664000000000005</v>
+      </c>
+      <c r="CN9">
+        <v>0.86594000000000004</v>
+      </c>
+      <c r="CO9">
+        <v>0.84358</v>
+      </c>
+      <c r="CP9">
+        <v>0.83018999999999998</v>
+      </c>
+      <c r="CQ9">
+        <v>0.82923999999999998</v>
+      </c>
+      <c r="CR9">
+        <v>0.83172999999999997</v>
+      </c>
+      <c r="CS9">
+        <v>0.83842000000000005</v>
+      </c>
+      <c r="CT9">
+        <v>0.86500999999999995</v>
+      </c>
+      <c r="CU9">
+        <v>0.84353</v>
+      </c>
+      <c r="CV9">
+        <v>0.84514</v>
+      </c>
+      <c r="CW9">
+        <v>0.84324759999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.83306999999999998</v>
-      </c>
-      <c r="B9">
-        <v>0.85975000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.84641</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.84497999999999995</v>
+      </c>
+      <c r="B10">
+        <v>0.84879000000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.83055999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.82801999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.85292999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.83223000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.82018999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.84753000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.84396000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.83792</v>
+      </c>
+      <c r="M10">
+        <v>0.84147000000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.83143</v>
+      </c>
+      <c r="O10">
+        <v>0.84245000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>0.83296999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.83218000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.83103000000000005</v>
+      </c>
+      <c r="T10">
+        <v>0.82942000000000005</v>
+      </c>
+      <c r="U10">
+        <v>0.82567000000000002</v>
+      </c>
+      <c r="V10">
+        <v>0.81774999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="X10">
+        <v>0.83923000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.84911999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.83206999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.83596999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.84931000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.83858999999999995</v>
+      </c>
+      <c r="AE10">
+        <v>0.84938999999999998</v>
+      </c>
+      <c r="AF10">
+        <v>0.84323000000000004</v>
+      </c>
+      <c r="AG10">
+        <v>0.84931000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>0.84247000000000005</v>
+      </c>
+      <c r="AI10">
+        <v>0.85612999999999995</v>
+      </c>
+      <c r="AJ10">
+        <v>0.84819</v>
+      </c>
+      <c r="AK10">
+        <v>0.82411000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.83899000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.81835000000000002</v>
+      </c>
+      <c r="AN10">
+        <v>0.82811000000000001</v>
+      </c>
+      <c r="AO10">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.81074999999999997</v>
+      </c>
+      <c r="AQ10">
+        <v>0.84226000000000001</v>
+      </c>
+      <c r="AR10">
+        <v>0.83201999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>0.81254000000000004</v>
+      </c>
+      <c r="AT10">
+        <v>0.82686999999999999</v>
+      </c>
+      <c r="AU10">
+        <v>0.85260999999999998</v>
+      </c>
+      <c r="AV10">
+        <v>0.83377000000000001</v>
+      </c>
+      <c r="AW10">
+        <v>0.82943</v>
+      </c>
+      <c r="AX10">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AY10">
+        <v>0.80847999999999998</v>
+      </c>
+      <c r="AZ10">
+        <v>0.83675999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.82755999999999996</v>
+      </c>
+      <c r="BB10">
+        <v>0.85873999999999995</v>
+      </c>
+      <c r="BC10">
+        <v>0.85275999999999996</v>
+      </c>
+      <c r="BD10">
+        <v>0.83594000000000002</v>
+      </c>
+      <c r="BE10">
+        <v>0.84167000000000003</v>
+      </c>
+      <c r="BF10">
+        <v>0.82403000000000004</v>
+      </c>
+      <c r="BG10">
+        <v>0.84301000000000004</v>
+      </c>
+      <c r="BH10">
+        <v>0.84292999999999996</v>
+      </c>
+      <c r="BI10">
+        <v>0.85214999999999996</v>
+      </c>
+      <c r="BJ10">
+        <v>0.83247000000000004</v>
+      </c>
+      <c r="BK10">
+        <v>0.85341</v>
+      </c>
+      <c r="BL10">
+        <v>0.81586000000000003</v>
+      </c>
+      <c r="BM10">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="BN10">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="BO10">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="BP10">
+        <v>0.82862000000000002</v>
+      </c>
+      <c r="BQ10">
+        <v>0.85319</v>
+      </c>
+      <c r="BR10">
+        <v>0.83245000000000002</v>
+      </c>
+      <c r="BS10">
+        <v>0.86346000000000001</v>
+      </c>
+      <c r="BT10">
+        <v>0.82803000000000004</v>
+      </c>
+      <c r="BU10">
+        <v>0.82645000000000002</v>
+      </c>
+      <c r="BV10">
+        <v>0.84492999999999996</v>
+      </c>
+      <c r="BW10">
+        <v>0.83535000000000004</v>
+      </c>
+      <c r="BX10">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="BY10">
+        <v>0.84033000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.84206999999999999</v>
+      </c>
+      <c r="CA10">
+        <v>0.82923000000000002</v>
+      </c>
+      <c r="CB10">
+        <v>0.83667999999999998</v>
+      </c>
+      <c r="CC10">
+        <v>0.85382999999999998</v>
+      </c>
+      <c r="CD10">
+        <v>0.84857000000000005</v>
+      </c>
+      <c r="CE10">
+        <v>0.83599000000000001</v>
+      </c>
+      <c r="CF10">
+        <v>0.81440999999999997</v>
+      </c>
+      <c r="CG10">
+        <v>0.85482999999999998</v>
+      </c>
+      <c r="CH10">
+        <v>0.83931</v>
+      </c>
+      <c r="CI10">
+        <v>0.81827000000000005</v>
+      </c>
+      <c r="CJ10">
+        <v>0.83772999999999997</v>
+      </c>
+      <c r="CK10">
+        <v>0.84394999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.84938999999999998</v>
+      </c>
+      <c r="CM10">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="CN10">
+        <v>0.82601999999999998</v>
+      </c>
+      <c r="CO10">
+        <v>0.86373</v>
+      </c>
+      <c r="CP10">
+        <v>0.82838000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0.85829</v>
+      </c>
+      <c r="CR10">
+        <v>0.84194999999999998</v>
+      </c>
+      <c r="CS10">
+        <v>0.84511000000000003</v>
+      </c>
+      <c r="CT10">
+        <v>0.84277000000000002</v>
+      </c>
+      <c r="CU10">
+        <v>0.84109</v>
+      </c>
+      <c r="CV10">
+        <v>0.85482000000000002</v>
+      </c>
+      <c r="CW10">
+        <v>0.83856779999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.81769999999999998</v>
-      </c>
-      <c r="B10">
-        <v>0.84689999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.83230000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.86043999999999998</v>
+        <v>0.83884000000000003</v>
       </c>
       <c r="B11">
-        <v>0.84352000000000005</v>
+        <v>0.85665000000000002</v>
       </c>
       <c r="C11">
-        <v>0.85197999999999996</v>
+        <v>0.83933999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.84843000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.83521000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.84911000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.84621999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.83652000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.82418000000000002</v>
+      </c>
+      <c r="K11">
+        <v>0.84186000000000005</v>
+      </c>
+      <c r="L11">
+        <v>0.83303000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.83113999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.82343999999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.85270999999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.84458999999999995</v>
+      </c>
+      <c r="R11">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.82933999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.82145000000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.83958999999999995</v>
+      </c>
+      <c r="V11">
+        <v>0.81677</v>
+      </c>
+      <c r="W11">
+        <v>0.81174999999999997</v>
+      </c>
+      <c r="X11">
+        <v>0.82969000000000004</v>
+      </c>
+      <c r="Y11">
+        <v>0.85802</v>
+      </c>
+      <c r="Z11">
+        <v>0.83575999999999995</v>
+      </c>
+      <c r="AA11">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.82777000000000001</v>
+      </c>
+      <c r="AC11">
+        <v>0.84353999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>0.83360999999999996</v>
+      </c>
+      <c r="AE11">
+        <v>0.84838999999999998</v>
+      </c>
+      <c r="AF11">
+        <v>0.83787</v>
+      </c>
+      <c r="AG11">
+        <v>0.83209</v>
+      </c>
+      <c r="AH11">
+        <v>0.83543000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.82447999999999999</v>
+      </c>
+      <c r="AJ11">
+        <v>0.81730999999999998</v>
+      </c>
+      <c r="AK11">
+        <v>0.84214999999999995</v>
+      </c>
+      <c r="AL11">
+        <v>0.83142000000000005</v>
+      </c>
+      <c r="AM11">
+        <v>0.83199000000000001</v>
+      </c>
+      <c r="AN11">
+        <v>0.81167999999999996</v>
+      </c>
+      <c r="AO11">
+        <v>0.82891000000000004</v>
+      </c>
+      <c r="AP11">
+        <v>0.82408000000000003</v>
+      </c>
+      <c r="AQ11">
+        <v>0.82457000000000003</v>
+      </c>
+      <c r="AR11">
+        <v>0.84646999999999994</v>
+      </c>
+      <c r="AS11">
+        <v>0.82723999999999998</v>
+      </c>
+      <c r="AT11">
+        <v>0.83406999999999998</v>
+      </c>
+      <c r="AU11">
+        <v>0.87287999999999999</v>
+      </c>
+      <c r="AV11">
+        <v>0.85907</v>
+      </c>
+      <c r="AW11">
+        <v>0.85543000000000002</v>
+      </c>
+      <c r="AX11">
+        <v>0.82584000000000002</v>
+      </c>
+      <c r="AY11">
+        <v>0.82904999999999995</v>
+      </c>
+      <c r="AZ11">
+        <v>0.85965999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.81852999999999998</v>
+      </c>
+      <c r="BB11">
+        <v>0.82711000000000001</v>
+      </c>
+      <c r="BC11">
+        <v>0.83338999999999996</v>
+      </c>
+      <c r="BD11">
+        <v>0.82876000000000005</v>
+      </c>
+      <c r="BE11">
+        <v>0.83767999999999998</v>
+      </c>
+      <c r="BF11">
+        <v>0.84199000000000002</v>
+      </c>
+      <c r="BG11">
+        <v>0.84631999999999996</v>
+      </c>
+      <c r="BH11">
+        <v>0.82542000000000004</v>
+      </c>
+      <c r="BI11">
+        <v>0.85263</v>
+      </c>
+      <c r="BJ11">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="BK11">
+        <v>0.82593000000000005</v>
+      </c>
+      <c r="BL11">
+        <v>0.85067999999999999</v>
+      </c>
+      <c r="BM11">
+        <v>0.83996000000000004</v>
+      </c>
+      <c r="BN11">
+        <v>0.82593000000000005</v>
+      </c>
+      <c r="BO11">
+        <v>0.84724999999999995</v>
+      </c>
+      <c r="BP11">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="BQ11">
+        <v>0.82157000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>0.83467000000000002</v>
+      </c>
+      <c r="BS11">
+        <v>0.83296000000000003</v>
+      </c>
+      <c r="BT11">
+        <v>0.82455000000000001</v>
+      </c>
+      <c r="BU11">
+        <v>0.82262999999999997</v>
+      </c>
+      <c r="BV11">
+        <v>0.85587000000000002</v>
+      </c>
+      <c r="BW11">
+        <v>0.83818999999999999</v>
+      </c>
+      <c r="BX11">
+        <v>0.84713000000000005</v>
+      </c>
+      <c r="BY11">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="BZ11">
+        <v>0.82316</v>
+      </c>
+      <c r="CA11">
+        <v>0.84941</v>
+      </c>
+      <c r="CB11">
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="CC11">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="CD11">
+        <v>0.83733000000000002</v>
+      </c>
+      <c r="CE11">
+        <v>0.84353</v>
+      </c>
+      <c r="CF11">
+        <v>0.84784999999999999</v>
+      </c>
+      <c r="CG11">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.82855000000000001</v>
+      </c>
+      <c r="CI11">
+        <v>0.84255999999999998</v>
+      </c>
+      <c r="CJ11">
+        <v>0.83962999999999999</v>
+      </c>
+      <c r="CK11">
+        <v>0.85396000000000005</v>
+      </c>
+      <c r="CL11">
+        <v>0.85168999999999995</v>
+      </c>
+      <c r="CM11">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="CN11">
+        <v>0.85055000000000003</v>
+      </c>
+      <c r="CO11">
+        <v>0.84677000000000002</v>
+      </c>
+      <c r="CP11">
+        <v>0.83711000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.83591000000000004</v>
+      </c>
+      <c r="CR11">
+        <v>0.86602000000000001</v>
+      </c>
+      <c r="CS11">
+        <v>0.85168999999999995</v>
+      </c>
+      <c r="CT11">
+        <v>0.86053000000000002</v>
+      </c>
+      <c r="CU11">
+        <v>0.82896000000000003</v>
+      </c>
+      <c r="CV11">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="CW11">
+        <v>0.83804970000000045</v>
       </c>
     </row>
   </sheetData>
